--- a/Docs/test.xlsx
+++ b/Docs/test.xlsx
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +147,14 @@
   </si>
   <si>
     <t>[TABLE_END]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +509,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -545,13 +545,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>4.4000000000000004</v>
@@ -559,80 +559,80 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>8.5</v>
@@ -649,7 +649,7 @@
         <v>3.3</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -657,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>9.5</v>
@@ -666,7 +666,7 @@
         <v>4.3</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -674,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>10.5</v>
@@ -683,7 +683,7 @@
         <v>5.3</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -691,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>11.5</v>
@@ -700,7 +700,7 @@
         <v>6.3</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -708,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>12.5</v>
@@ -717,7 +717,7 @@
         <v>7.3</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -725,7 +725,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>13.5</v>
@@ -734,7 +734,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -742,7 +742,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>14.5</v>
@@ -751,7 +751,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -759,7 +759,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>15.5</v>
@@ -768,7 +768,7 @@
         <v>10.3</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>16.5</v>
@@ -785,7 +785,7 @@
         <v>11.3</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -793,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>17.5</v>
@@ -802,7 +802,7 @@
         <v>12.3</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -810,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>18.5</v>
@@ -819,7 +819,7 @@
         <v>13.3</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -827,7 +827,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>19.5</v>
@@ -836,12 +836,12 @@
         <v>14.3</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
